--- a/API.xlsx
+++ b/API.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\webstorm_projects\adcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9891C0E4-9B33-4167-ADAB-1A4D9B6B3437}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10E90426-A155-43E4-A6B8-1BBC95A39A9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D626EB42-D407-4C52-9E4D-58A4A935F1D5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="51">
   <si>
     <t>#</t>
   </si>
@@ -232,6 +232,19 @@
   </si>
   <si>
     <t>{
+   "title":"Spot 1",
+   "client":"Emag",
+   "spot_type":"AUDIO",
+   "duration":20,
+   "status":"PENDING",
+}</t>
+  </si>
+  <si>
+    <t>{"success": true}
+{"success": false,  "payload": {}, "error": {"code": 123, "message": "string"}}</t>
+  </si>
+  <si>
+    <t>{
    "id":1,
    "uid":"ABD6575B",
    "title":"Spot 1",
@@ -239,7 +252,6 @@
    "spot_type":"AUDIO",
    "duration":20,
    "status":"PENDING",
-   "referrer":"ref 2",
    "created_at":"2020-05-26T11:54:32.000Z",
    "updated_at":"2020-06-11T12:10:39.000Z",
    "user":{
@@ -296,6 +308,143 @@
    },
    "deleted":false
 }</t>
+  </si>
+  <si>
+    <t>User-spot-talent</t>
+  </si>
+  <si>
+    <t>{
+   "id":1,
+   "broadcast_duration":50,
+   "start_date":"2020-06-01",
+   "media_type":"AUDIO",
+   "created_at":"2020-06-11T13:54:18.000Z",
+   "updated_at":"2020-06-16T11:07:16.000Z",
+   "spot":{
+      "id":2,
+      "uid":"0K76VLPW",
+      "title":"Spot 2",
+      "client":"Media Galaxy",
+      "spot_type":"AUDIO_VIDEO",
+      "duration":20,
+      "status":"PENDING",
+      "referrer":"ref",
+      "created_at":"2020-05-29T12:00:23.000Z",
+      "updated_at":"2020-06-11T12:53:52.000Z",
+      "user":1,
+      "deleted":false
+   },
+   "deleted":false,
+   "broadcaster":{
+      "id":3,
+      "username":"Virgin Radio",
+      "email":"broadcaster@gmail.com",
+      "provider":"local",
+      "confirmed":false,
+      "blocked":false,
+      "role":5,
+      "created_at":"2020-05-26T12:31:11.000Z",
+      "updated_at":"2020-06-16T11:06:57.000Z",
+      "user_id":null,
+      "cui":"RO190273637492827",
+      "address":"Unirii 7",
+      "phone":"0741393014",
+      "talent_type":null,
+      "media_type":"RADIO",
+      "arbiter_type":null,
+      "cnp":null,
+      "user_type":null,
+      "contact_name":null,
+      "referrer":null,
+      "avatar":null
+   }
+}</t>
+  </si>
+  <si>
+    <t>{
+   "broadcast_duration":50,
+   "start_date":"2020-06-01",
+   "media_type":"AUDIO",
+   "created_at":"2020-06-11T13:54:18.000Z",
+   "updated_at":"2020-06-16T11:07:16.000Z",
+   "spot":2,
+   "broadcaster":3,
+   "deleted":false
+}</t>
+  </si>
+  <si>
+    <t>{
+   "id":1,
+   "uid":1,
+   "talent_role":"VOICE",
+   "obs":"jwjsbajb",
+   "created_at":"2020-05-26T12:00:55.000Z",
+   "updated_at":"2020-06-16T10:59:27.000Z",
+   "spot":{
+      "id":1,
+      "uid":"ABD6575B",
+      "title":"Spot 1",
+      "client":"Emag",
+      "spot_type":"AUDIO",
+      "duration":20,
+      "status":"PENDING",
+      "referrer":"ref 2",
+      "created_at":"2020-05-26T11:54:32.000Z",
+      "updated_at":"2020-06-11T12:10:39.000Z",
+      "user":1,
+      "deleted":false
+   },
+   "user":2,
+   "deleted":null,
+   "talent":{
+      "id":2,
+      "username":"Voice 1",
+      "email":"voice@gmail.com",
+      "provider":"local",
+      "confirmed":true,
+      "blocked":false,
+      "role":4,
+      "created_at":"2020-05-26T12:30:16.000Z",
+      "updated_at":"2020-05-29T12:02:47.000Z",
+      "user_id":null,
+      "cui":"RO190273637492827",
+      "address":"Unirii 7",
+      "phone":"0741393014",
+      "talent_type":"VOICE",
+      "media_type":null,
+      "arbiter_type":null,
+      "cnp":null,
+      "user_type":null,
+      "contact_name":null,
+      "referrer":null,
+      "avatar":null
+   }
+}</t>
+  </si>
+  <si>
+    <t>/user-spot-talent/:uid</t>
+  </si>
+  <si>
+    <t>Get specified spot tallents</t>
+  </si>
+  <si>
+    <t>Add talent to specified spot</t>
+  </si>
+  <si>
+    <t>{
+   "talent_role":"VOICE",
+   "obs":"jwjsbajb",
+   "talent":2
+    }</t>
+  </si>
+  <si>
+    <t>/user-spot-talent/:id</t>
+  </si>
+  <si>
+    <t>Update spot talent</t>
+  </si>
+  <si>
+    <t>Delete  spot tallent</t>
   </si>
 </sst>
 </file>
@@ -376,7 +525,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -399,11 +548,57 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -433,21 +628,36 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D853FE9F-9E65-48A9-92F6-E849DE96A7DF}">
-  <dimension ref="A1:G35"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G26" sqref="G25:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -782,15 +992,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="42.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -848,10 +1058,10 @@
       <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11">
+      <c r="A5" s="16">
         <v>2</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -869,8 +1079,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="301.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="12"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="15"/>
       <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
@@ -885,7 +1095,7 @@
       </c>
       <c r="G6" s="8"/>
     </row>
-    <row r="7" spans="1:7" s="13" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -895,10 +1105,10 @@
       <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="11">
+      <c r="A8" s="16">
         <v>3</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -912,12 +1122,12 @@
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16"/>
+      <c r="B9" s="15"/>
       <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
@@ -927,12 +1137,16 @@
       <c r="E9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
+      <c r="F9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="16"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
@@ -942,12 +1156,16 @@
       <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-    </row>
-    <row r="11" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
+      <c r="F10" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="55.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="8" t="s">
         <v>16</v>
       </c>
@@ -958,7 +1176,9 @@
         <v>21</v>
       </c>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
@@ -969,11 +1189,11 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="14">
+    <row r="13" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
         <v>4</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="15" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -986,11 +1206,13 @@
         <v>26</v>
       </c>
       <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-    </row>
-    <row r="14" spans="1:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14"/>
-      <c r="B14" s="12"/>
+      <c r="G13" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="15"/>
       <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
@@ -1000,14 +1222,18 @@
       <c r="E14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="14"/>
-      <c r="B15" s="12"/>
+      <c r="F14" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
       <c r="C15" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>10</v>
@@ -1015,12 +1241,16 @@
       <c r="E15" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-    </row>
-    <row r="16" spans="1:7" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="14"/>
-      <c r="B16" s="12"/>
+      <c r="F15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="15"/>
       <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
@@ -1031,52 +1261,94 @@
         <v>29</v>
       </c>
       <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="G16" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+    </row>
+    <row r="18" spans="1:7" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>5</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>45</v>
+      </c>
       <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
+      <c r="G21" s="5" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
@@ -1142,13 +1414,13 @@
       <c r="G28" s="5"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2"/>
@@ -1204,15 +1476,26 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
+    <mergeCell ref="B13:B16"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="A18:A21"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="A13:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
